--- a/12/Data/blue.xlsx
+++ b/12/Data/blue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/IIPF/12/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEC6CCA-EEB2-4C12-AD02-FB04C79782D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{3EEC6CCA-EEB2-4C12-AD02-FB04C79782D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{819AE504-8C75-475E-B25D-8B265F4FD52C}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20177" xr2:uid="{1A501AD3-853D-4D62-83AB-CD8DC14EE730}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1A501AD3-853D-4D62-83AB-CD8DC14EE730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,37 +386,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8568565B-D240-4F35-A390-80E6678C31CC}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.51500000000000001</v>
       </c>
+      <c r="B1">
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.0329999999999999</v>
       </c>
+      <c r="B2">
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.587</v>
       </c>
+      <c r="B3">
+        <v>0.1875</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.9159999999999999</v>
       </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.3610000000000002</v>
+      </c>
+      <c r="B5">
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
